--- a/tests/resources/test_vfm_master_1_2020.xlsx
+++ b/tests/resources/test_vfm_master_1_2020.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="108">
   <si>
     <t xml:space="preserve">Project/Programme Name</t>
   </si>
@@ -338,6 +338,12 @@
   </si>
   <si>
     <t xml:space="preserve">Rail Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benefits Narrative </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All you need is love, love is all you need </t>
   </si>
 </sst>
 </file>
@@ -421,7 +427,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -435,6 +441,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -460,7 +470,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="74" zoomScaleNormal="74" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A70" activeCellId="0" sqref="70:70"/>
+      <selection pane="bottomLeft" activeCell="C71" activeCellId="0" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1479,6 +1489,14 @@
       <c r="ALE70" s="1"/>
       <c r="ALF70" s="1"/>
       <c r="ALG70" s="1"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="1046075" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1046076" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/tests/resources/test_vfm_master_1_2020.xlsx
+++ b/tests/resources/test_vfm_master_1_2020.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="109">
   <si>
     <t xml:space="preserve">Project/Programme Name</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t xml:space="preserve">Present Value Cost (PVC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">928 -678</t>
   </si>
   <si>
     <t xml:space="preserve">Present Value Benefit (PVB)</t>
@@ -350,9 +353,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$-809]DD/MM/YYYY"/>
+    <numFmt numFmtId="166" formatCode="[$£-809]#,##0.00;[RED]\-[$£-809]#,##0.00"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -427,7 +431,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -437,6 +441,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -468,14 +476,14 @@
   <dimension ref="A1:ALG1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="74" zoomScaleNormal="74" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C71" activeCellId="0" sqref="C71"/>
+      <selection pane="bottomLeft" activeCell="D57" activeCellId="0" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="1" width="22.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="996" style="1" width="9.14"/>
   </cols>
@@ -1145,8 +1153,8 @@
       <c r="B51" s="1" t="n">
         <v>2089</v>
       </c>
-      <c r="C51" s="1" t="n">
-        <v>928</v>
+      <c r="C51" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="D51" s="1" t="n">
         <v>833</v>
@@ -1160,7 +1168,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>30458</v>
@@ -1180,7 +1188,7 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>22</v>
@@ -1200,7 +1208,7 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>22</v>
@@ -1217,7 +1225,7 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>22</v>
@@ -1237,33 +1245,33 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>30</v>
@@ -1271,13 +1279,13 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>30</v>
@@ -1285,217 +1293,217 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B59" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="B59" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E59" s="3" t="s">
+      <c r="D59" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E59" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="F59" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G59" s="3"/>
+      <c r="G59" s="4"/>
       <c r="ALE59" s="1"/>
       <c r="ALF59" s="1"/>
       <c r="ALG59" s="1"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
+        <v>93</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
       <c r="ALE60" s="1"/>
       <c r="ALF60" s="1"/>
       <c r="ALG60" s="1"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
+      <c r="A61" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
       <c r="ALE61" s="1"/>
       <c r="ALF61" s="1"/>
       <c r="ALG61" s="1"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
+      <c r="A62" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
       <c r="ALE62" s="1"/>
       <c r="ALF62" s="1"/>
       <c r="ALG62" s="1"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
+      <c r="A63" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
       <c r="ALE63" s="1"/>
       <c r="ALF63" s="1"/>
       <c r="ALG63" s="1"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
+      <c r="A64" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
       <c r="ALE64" s="1"/>
       <c r="ALF64" s="1"/>
       <c r="ALG64" s="1"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
+      <c r="A65" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
       <c r="ALE65" s="1"/>
       <c r="ALF65" s="1"/>
       <c r="ALG65" s="1"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
+      <c r="A66" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
       <c r="ALE66" s="1"/>
       <c r="ALF66" s="1"/>
       <c r="ALG66" s="1"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
       <c r="ALE67" s="1"/>
       <c r="ALF67" s="1"/>
       <c r="ALG67" s="1"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
+        <v>101</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
       <c r="ALE68" s="1"/>
       <c r="ALF68" s="1"/>
       <c r="ALG68" s="1"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
+        <v>102</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
       <c r="ALE69" s="1"/>
       <c r="ALF69" s="1"/>
       <c r="ALG69" s="1"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D70" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="G70" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="ALE70" s="1"/>
       <c r="ALF70" s="1"/>
       <c r="ALG70" s="1"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4" t="s">
-        <v>106</v>
+      <c r="A71" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="1046075" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/tests/resources/test_vfm_master_1_2020.xlsx
+++ b/tests/resources/test_vfm_master_1_2020.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="110">
   <si>
     <t xml:space="preserve">Project/Programme Name</t>
   </si>
@@ -347,6 +347,9 @@
   </si>
   <si>
     <t xml:space="preserve">All you need is love, love is all you need </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GMPP - IPA ID Number</t>
   </si>
 </sst>
 </file>
@@ -476,9 +479,9 @@
   <dimension ref="A1:ALG1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="74" zoomScaleNormal="74" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D57" activeCellId="0" sqref="D57"/>
+      <selection pane="bottomLeft" activeCell="A72" activeCellId="0" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1504,6 +1507,11 @@
       </c>
       <c r="B71" s="1" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="1046075" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
